--- a/projects/_02_Process Mining/Simulating_logs/model_in_table.xlsx
+++ b/projects/_02_Process Mining/Simulating_logs/model_in_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\GitHub\peter-seweiha.github.io\projects\_02_Process Mining\Simulating_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D685A2A8-3D47-4D07-903C-60D9743133F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4724E85-D2A1-4770-8A40-0C07D2AF3AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>Activity</t>
   </si>
@@ -62,10 +62,7 @@
     <t>Start</t>
   </si>
   <si>
-    <t>From</t>
-  </si>
-  <si>
-    <t>End</t>
+    <t>Activity E</t>
   </si>
 </sst>
 </file>
@@ -384,20 +381,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.54296875" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,91 +401,84 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1">
+      <c r="C3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <f>E4+D4</f>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="E5" s="1">
-        <f>F4</f>
+      <c r="C5" s="1">
         <v>0.3</v>
       </c>
-      <c r="F5" s="1">
-        <f>E5+D5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/projects/_02_Process Mining/Simulating_logs/model_in_table.xlsx
+++ b/projects/_02_Process Mining/Simulating_logs/model_in_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\GitHub\peter-seweiha.github.io\projects\_02_Process Mining\Simulating_logs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4724E85-D2A1-4770-8A40-0C07D2AF3AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF42CC7-835C-4616-AC63-69B3E68575F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Activity</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Activity E</t>
+  </si>
+  <si>
+    <t>Duration_min</t>
+  </si>
+  <si>
+    <t>End</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,7 +399,7 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -403,8 +409,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -414,8 +423,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -425,8 +437,11 @@
       <c r="C3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -436,8 +451,11 @@
       <c r="C4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -447,8 +465,11 @@
       <c r="C5" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -458,8 +479,11 @@
       <c r="C6" s="1">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -469,8 +493,11 @@
       <c r="C7" s="1">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -479,6 +506,23 @@
       </c>
       <c r="C8" s="1">
         <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
